--- a/Ejercicios OZ/Ejercicio 5.xlsx
+++ b/Ejercicios OZ/Ejercicio 5.xlsx
@@ -123,9 +123,6 @@
     <t>s={x1 = [1 2 3 4], r,a,b}</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b}</t>
-  </si>
-  <si>
     <t>&lt;s0&gt;,E</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>PASO 20</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end{Xs-&gt;x1,R-&gt;r},b}</t>
   </si>
 </sst>
 </file>
@@ -406,6 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,7 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,7 +744,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -752,8 +752,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -761,8 +761,8 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>12</v>
       </c>
@@ -771,8 +771,8 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -781,20 +781,20 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -836,7 +836,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
@@ -844,118 +844,118 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7" t="s">
-        <v>44</v>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="10"/>
       <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="10"/>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -964,8 +964,8 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -986,7 +986,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1031,7 +1031,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1045,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1059,17 +1059,17 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1077,228 +1077,228 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
         <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
         <v>91</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
         <v>94</v>
-      </c>
-      <c r="B53" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Ejercicios OZ/Ejercicio 5.xlsx
+++ b/Ejercicios OZ/Ejercicio 5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="510" windowWidth="28785" windowHeight="12750" activeTab="2"/>
+    <workbookView xWindow="-345" yWindow="510" windowWidth="28785" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Programa" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
   <si>
     <t>length = proc {$ Xs R}</t>
   </si>
   <si>
-    <t>case Xs of X|Xr then</t>
-  </si>
-  <si>
     <t>local U in</t>
   </si>
   <si>
-    <t>{length Xr U}</t>
-  </si>
-  <si>
     <t>R = U +1</t>
   </si>
   <si>
@@ -39,9 +33,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>U = 0</t>
-  </si>
-  <si>
     <t>&lt;s&gt;</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>PASO 4</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0}</t>
-  </si>
-  <si>
     <t>PASO 5</t>
   </si>
   <si>
@@ -213,21 +201,9 @@
     <t>&lt;sp_3-2&gt;, E5</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4], u1 = 1}</t>
-  </si>
-  <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4], u1}</t>
-  </si>
-  <si>
     <t>PASO 11</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2}</t>
-  </si>
-  <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2}</t>
-  </si>
-  <si>
     <t>PASO 12</t>
   </si>
   <si>
@@ -258,12 +234,6 @@
     <t>&lt;sp_1&gt;,E8</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3}</t>
-  </si>
-  <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3}</t>
-  </si>
-  <si>
     <t>E8={L-&gt;t3, R-&gt;r, A-&gt;u3}</t>
   </si>
   <si>
@@ -276,18 +246,12 @@
     <t>&lt;sp_3-2&gt;, E9</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4}</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASO 17 </t>
   </si>
   <si>
     <t>E9={L-&gt;t3, R-&gt;r, A-&gt;u3, U-&gt;u4}</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4=4}</t>
-  </si>
-  <si>
     <t>&lt;sp_1&gt;,E10</t>
   </si>
   <si>
@@ -303,13 +267,160 @@
     <t>&lt;sp_2&gt;,E10</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r=4,a=proc(L,R,acumm)&lt;sp&gt;end,b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4=4}</t>
-  </si>
-  <si>
     <t>PASO 20</t>
   </si>
   <si>
-    <t>s={x1 = [1 2 3 4], r,a=proc(L,R,acumm)&lt;sp&gt;end{Xs-&gt;x1,R-&gt;r},b}</t>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4], u1}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4], u1 = 1}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4=4}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r=4,a=(proc(L,R,acumm)&lt;sp&gt;,end,{Xs-&gt;x1,R-&gt;r}),b=0, h1=1, t1=[2 3 4] u1 = 1,  h2=2, t2=[3 4], u2=2,  h3=3, t3=[4 ], u3 = 3, h4=4, t4=[ ], u4=4}</t>
+  </si>
+  <si>
+    <t>E = {Xs-&gt;x1, R-&gt;r}</t>
+  </si>
+  <si>
+    <t>&lt;s&gt;,E</t>
+  </si>
+  <si>
+    <t>&lt;s1&gt;,E</t>
+  </si>
+  <si>
+    <t>case Xs of H|T then</t>
+  </si>
+  <si>
+    <t>{length T U}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4]}</t>
+  </si>
+  <si>
+    <t>R = 0</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1}</t>
+  </si>
+  <si>
+    <t>E' = {Xs-&gt;x1, R-&gt;r, U-&gt;u1}</t>
+  </si>
+  <si>
+    <t>E'' = {Xs-&gt;t1, R-&gt;u1}</t>
+  </si>
+  <si>
+    <t>&lt;s&gt;,E''</t>
+  </si>
+  <si>
+    <t>&lt;s1_1&gt;,E'''</t>
+  </si>
+  <si>
+    <t>&lt;s1_2&gt;,E'''</t>
+  </si>
+  <si>
+    <t>E''' = {Xs-&gt;t1, R-&gt;u1,U-&gt;u2}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2}</t>
+  </si>
+  <si>
+    <t>&lt;s&gt;,E4</t>
+  </si>
+  <si>
+    <t>E4 = {Xs-&gt;t2, R-&gt;u2}</t>
+  </si>
+  <si>
+    <t>&lt;s1_1&gt;,E5</t>
+  </si>
+  <si>
+    <t>&lt;s1_2&gt;,E5</t>
+  </si>
+  <si>
+    <t>E5 = {Xs-&gt;t2, R-&gt;u2,U-&gt;u3}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2, h3=3, t3=[4], u3}</t>
+  </si>
+  <si>
+    <t>PASO 9</t>
+  </si>
+  <si>
+    <t>&lt;s&gt;,E6</t>
+  </si>
+  <si>
+    <t>&lt;s1_1&gt;,E7</t>
+  </si>
+  <si>
+    <t>&lt;s1_2&gt;,E7</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2, h3=3, t3=[4], u3, h4=4,t4=[],u4}</t>
+  </si>
+  <si>
+    <t>&lt;s&gt;,E8</t>
+  </si>
+  <si>
+    <t>E6 = {Xs-&gt;t3, R-&gt;u3}</t>
+  </si>
+  <si>
+    <t>E7 = {Xs-&gt;t3, R-&gt;3,U-&gt;u4}</t>
+  </si>
+  <si>
+    <t>E8 = {Xs-&gt;t4, R-&gt;u4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 12 </t>
+  </si>
+  <si>
+    <t>&lt;s2&gt;,E8</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2, h3=3, t3=[4], u3, h4=4,t4=[],u4=0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 14 </t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2, h3=3, t3=[4], u3=1, h4=4,t4=[],u4=0}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2=2, h3=3, t3=[4], u3=1, h4=4,t4=[],u4=0}</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1=3,h2=2, t2=[3 4], u2=2, h3=3, t3=[4], u3=1, h4=4,t4=[],u4=0}</t>
+  </si>
+  <si>
+    <t>PASO 17</t>
+  </si>
+  <si>
+    <t>s={x1 = [1 2 3 4], r=4,h1=1,t1=[2 3 4],u1=3,h2=2, t2=[3 4], u2=2, h3=3, t3=[4], u3=1, h4=4,t4=[],u4=0}</t>
+  </si>
+  <si>
+    <t>FIN</t>
   </si>
 </sst>
 </file>
@@ -727,13 +838,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -742,72 +856,433 @@
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="D4" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="H77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +1300,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -837,52 +1312,52 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
@@ -891,25 +1366,25 @@
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="10"/>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -917,20 +1392,20 @@
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8"/>
       <c r="J9" s="10"/>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="8"/>
@@ -940,7 +1415,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
@@ -949,7 +1424,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -957,36 +1432,36 @@
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1006,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1017,288 +1492,288 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Ejercicios OZ/Ejercicio 5.xlsx
+++ b/Ejercicios OZ/Ejercicio 5.xlsx
@@ -327,9 +327,6 @@
     <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1}</t>
   </si>
   <si>
-    <t>E' = {Xs-&gt;x1, R-&gt;r, U-&gt;u1}</t>
-  </si>
-  <si>
     <t>E'' = {Xs-&gt;t1, R-&gt;u1}</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>&lt;s1_2&gt;,E'''</t>
   </si>
   <si>
-    <t>E''' = {Xs-&gt;t1, R-&gt;u1,U-&gt;u2}</t>
-  </si>
-  <si>
     <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2}</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>&lt;s1_2&gt;,E5</t>
   </si>
   <si>
-    <t>E5 = {Xs-&gt;t2, R-&gt;u2,U-&gt;u3}</t>
-  </si>
-  <si>
     <t>s={x1 = [1 2 3 4], r,h1=1,t1=[2 3 4],u1,h2=2, t2=[3 4], u2, h3=3, t3=[4], u3}</t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>E6 = {Xs-&gt;t3, R-&gt;u3}</t>
   </si>
   <si>
-    <t>E7 = {Xs-&gt;t3, R-&gt;3,U-&gt;u4}</t>
-  </si>
-  <si>
     <t>E8 = {Xs-&gt;t4, R-&gt;u4}</t>
   </si>
   <si>
@@ -421,6 +409,18 @@
   </si>
   <si>
     <t>FIN</t>
+  </si>
+  <si>
+    <t>E' = {Xs-&gt;x1, R-&gt;r, U-&gt;u1,H-&gt;h1, T-&gt;t1}</t>
+  </si>
+  <si>
+    <t>E''' = {Xs-&gt;t1, R-&gt;u1,U-&gt;u2,H-&gt;h2, T-&gt;t2}</t>
+  </si>
+  <si>
+    <t>E5 = {Xs-&gt;t2, R-&gt;u2,U-&gt;u3,H-&gt;h3, T-&gt;t3}</t>
+  </si>
+  <si>
+    <t>E7 = {Xs-&gt;t3, R-&gt;3,U-&gt;u4,H-&gt;h4, T-&gt;t4}</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -976,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
         <v>102</v>
@@ -992,10 +992,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1008,18 +1008,18 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1032,15 +1032,15 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1053,23 +1053,23 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
         <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1079,23 +1079,23 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1108,28 +1108,28 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1142,25 +1142,25 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1170,25 +1170,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1201,20 +1201,20 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1224,18 +1224,18 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -1248,10 +1248,10 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="H77" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -1274,15 +1274,15 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H80" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
